--- a/Output/a2.xlsx
+++ b/Output/a2.xlsx
@@ -445,17 +445,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11:09:48</t>
+          <t>10:26:14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:10:07</t>
+          <t>10:26:43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.49</t>
         </is>
       </c>
     </row>
@@ -490,16 +490,8 @@
           <t>Velocity (um/s)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Start Coordinates</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>End Coordinates</t>
-        </is>
-      </c>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,16 +514,6 @@
       <c r="F4" t="n">
         <v>33.69887989700192</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[69, 612, 22, 23]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(55, 582, 16, 17)</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -554,16 +536,6 @@
       <c r="F5" t="n">
         <v>56.75029644922657</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[425, 600, 13, 17]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(417, 538, 13, 17)</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -586,16 +558,6 @@
       <c r="F6" t="n">
         <v>56.43721910420717</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[104, 288, 14, 9]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(43, 300, 14, 9)</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -618,16 +580,6 @@
       <c r="F7" t="n">
         <v>60.78228923816657</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[65, 272, 25, 19]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(30, 324, 25, 19)</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,16 +602,6 @@
       <c r="F8" t="n">
         <v>114.197305115969</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[676, 262, 28, 28]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(606, 367, 25, 25)</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -682,16 +624,6 @@
       <c r="F9" t="n">
         <v>92.53008379778639</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[302, 173, 31, 23]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(218, 230, 30, 23)</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -714,16 +646,6 @@
       <c r="F10" t="n">
         <v>118.1746862743134</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[154, 92, 26, 26]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(40, 154, 24, 24)</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -745,16 +667,6 @@
       </c>
       <c r="F11" t="n">
         <v>72.67515936544839</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[279, 91, 26, 24]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(220, 145, 24, 22)</t>
-        </is>
       </c>
     </row>
   </sheetData>
